--- a/2-Processing/valid_sources.xlsx
+++ b/2-Processing/valid_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff2cd6e4692b45d/Work/ODA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff2cd6e4692b45d/Documents/GitHub/ODA-Processing/2-Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{DB70D3A7-E37B-4CAF-9E50-32129B41A51B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3D7D653-FFE7-4942-A8B8-9D65F86D3380}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{DB70D3A7-E37B-4CAF-9E50-32129B41A51B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB63A190-6266-4DD2-914A-2DA8560EA837}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDFF8743-7E64-4C0A-ADDA-FBD0037E4D68}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="569">
   <si>
     <t>GEO_NAME</t>
   </si>
@@ -1735,6 +1735,12 @@
   </si>
   <si>
     <t>2021-02-24'</t>
+  </si>
+  <si>
+    <t>2021-04-19'</t>
+  </si>
+  <si>
+    <t>2021-04-16'</t>
   </si>
 </sst>
 </file>
@@ -2293,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F147459-2DC7-4915-BEB3-DAA0898787C1}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="E7" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="22.8" customHeight="1"/>
@@ -3841,7 +3847,7 @@
         <v>29</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>517</v>
@@ -5536,7 +5542,7 @@
         <v>183</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>486</v>
+        <v>568</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>565</v>
